--- a/Design/DateTable/client_monster_info.xlsx
+++ b/Design/DateTable/client_monster_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Client\SProject\Content\DataTable\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330F03F4-F2EE-4C9F-B769-D01CC61289B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F9724-1F8F-4509-B355-6C049A52407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,67 +71,119 @@
     <t>;레벨</t>
   </si>
   <si>
+    <t>;공격력</t>
+  </si>
+  <si>
+    <t>;방어력</t>
+  </si>
+  <si>
+    <t>;체력</t>
+  </si>
+  <si>
+    <t>;공격 속도</t>
+  </si>
+  <si>
+    <t>;공격 범위</t>
+  </si>
+  <si>
+    <t>;스플레쉬</t>
+  </si>
+  <si>
+    <t>;공격 타입</t>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;키값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;INDEX 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;공격 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactionRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;몬스터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;반응 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>;등급</t>
-  </si>
-  <si>
-    <t>;공격력</t>
-  </si>
-  <si>
-    <t>;방어력</t>
-  </si>
-  <si>
-    <t>;체력</t>
-  </si>
-  <si>
-    <t>;공격 속도</t>
-  </si>
-  <si>
-    <t>;공격 범위</t>
-  </si>
-  <si>
-    <t>;스플레쉬</t>
-  </si>
-  <si>
-    <t>;공격 타입</t>
-  </si>
-  <si>
-    <t>AttackType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;키값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;INDEX 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;공격 사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReactionRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;몬스터 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;반응 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON_IMAGE</t>
+  </si>
+  <si>
+    <t>ICON_IMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;아이콘 이미지 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,13 +251,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,6 +283,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,11 +627,12 @@
     <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -595,63 +659,69 @@
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -662,130 +732,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5">
+        <v>99</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design/DateTable/client_monster_info.xlsx
+++ b/Design/DateTable/client_monster_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F9724-1F8F-4509-B355-6C049A52407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C250DE-D957-4A1F-9157-172073B52334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -311,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -724,6 +724,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -734,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/Design/DateTable/client_monster_info.xlsx
+++ b/Design/DateTable/client_monster_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C250DE-D957-4A1F-9157-172073B52334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F4F10F-03E2-44FA-8082-586CC4BA2835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>;아이콘 이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;AttackType&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,19 +642,19 @@
     <col min="2" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -647,37 +671,37 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -694,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>21</v>
@@ -724,9 +748,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +786,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/DateTable/client_monster_info.xlsx
+++ b/Design/DateTable/client_monster_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F4F10F-03E2-44FA-8082-586CC4BA2835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE524C47-048D-41CF-9E56-3C96C221393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,27 +198,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum&lt;AttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NomalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보병 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁병 몬스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,9 +299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:XFD1048576"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,125 +657,1024 @@
     <col min="15" max="15" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="S4" t="s">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(G3*1.1, 0)</f>
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f>ROUND(I3*1.1, 0)</f>
+        <v>220</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G12" si="0">ROUND(G4*1.1, 0)</f>
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I12" si="1">ROUND(I4*1.1, 0)</f>
+        <v>242</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:I12" si="2">ROUND(H7*1.1,0)</f>
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>428</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>471</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>201</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s">
-        <v>46</v>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>201</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <f>ROUND(G13*1.1, 0)</f>
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>ROUND(I13*1.1, 0)</f>
+        <v>110</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>201</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G21" si="3">ROUND(G14*1.1, 0)</f>
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I22" si="4">ROUND(I14*1.1, 0)</f>
+        <v>121</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>201</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>201</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>201</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="G18:I22" si="5">ROUND(H17*1.1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>201</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>201</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>201</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>201</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +1688,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -796,160 +1698,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>99</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -957,7 +1859,7 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Design/DateTable/client_monster_info.xlsx
+++ b/Design/DateTable/client_monster_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F4F10F-03E2-44FA-8082-586CC4BA2835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABCE95-14C1-4D19-866D-C98C60605E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>enum&lt;AttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;몬스터 처치 시 획득하는 배치 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:XFD1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,10 +659,11 @@
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -698,10 +707,13 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -745,33 +757,36 @@
         <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q4" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
         <v>43</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>44</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>42</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -783,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,10 +969,18 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
     </row>
